--- a/lab_OPENACC/relatorio/dados.xlsx
+++ b/lab_OPENACC/relatorio/dados.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Gleizer\Documents\GitHubRepos\ReposEntregasCompPar\comppar-explorando-openmp-agleizer\RELATORIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Gleizer\Documents\GitHubRepos\ComputacaoParalela\lab_OPENACC\relatorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F812D34B-44D8-4D61-8F89-04BBA588C16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F0880A-178E-4A77-85DA-60CA4688853C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="0" windowWidth="22605" windowHeight="20985" xr2:uid="{DB2DDEBC-0D90-4E11-84B5-46A4E5A23E43}"/>
+    <workbookView xWindow="26475" yWindow="195" windowWidth="22605" windowHeight="20985" activeTab="1" xr2:uid="{DB2DDEBC-0D90-4E11-84B5-46A4E5A23E43}"/>
   </bookViews>
   <sheets>
-    <sheet name="ver. critical" sheetId="1" r:id="rId1"/>
-    <sheet name="ver. reduction" sheetId="4" r:id="rId2"/>
-    <sheet name="raw230" sheetId="2" r:id="rId3"/>
-    <sheet name="raw228" sheetId="3" r:id="rId4"/>
+    <sheet name="ver. odd even" sheetId="1" r:id="rId1"/>
+    <sheet name="ver. Sample" sheetId="6" r:id="rId2"/>
+    <sheet name="raw" sheetId="5" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'raw228'!$B$3:$C$123</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'raw230'!$B$3:$C$123</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,737 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="257">
-  <si>
-    <t>2 ^30</t>
-  </si>
-  <si>
-    <t>2 ^28</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.207124 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.206244 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.207211 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.206104 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.206941 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.206272 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.207041 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.206115 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.207067 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.206012 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.207052 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.206195 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.207027 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.206100 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.207217 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.206124 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.207049 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.206112 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.207015 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 288224947519735141 | Tempo: 0.205957 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.103969 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.103111 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.104078 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.103019 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.103951 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.103011 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.103984 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.103126 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.104061 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.103923 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.104140 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.103022 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.103892 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.102983 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.103780 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.103090 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.103944 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 288224947519735141 | Tempo: 0.103075 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.070109 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069606 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069897 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069149 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069578 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069094 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069789 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069095 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069659 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069108 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069673 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069067 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069660 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069111 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.070210 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069509 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069591 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069123 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069685 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 288224947519735141 | Tempo: 0.069115 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.052351 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.051860 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.052323 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.051832 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.052511 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.051761 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.052346 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.051894 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.053768 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.051997 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.052276 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.052773 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.052409 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.051745 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.052333 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.052779 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.053678 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.051923 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.052379 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 288224947519735141 | Tempo: 0.051953 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.042242 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.041752 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.043618 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.042230 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.042333 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.041863 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.044090 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.041473 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.041682 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.041407 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.042117 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.041763 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.042154 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.042653 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.042484 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.041836 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.042246 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.041761 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.042078 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 288224947519735141 | Tempo: 0.041756 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.036867 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.035763 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.036370 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.034957 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.035467 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.034942 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.035253 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.034781 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.035282 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.034737 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.035642 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.035086 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.035360 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.034785 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.035334 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.035280 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.034791 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.035450 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 288224947519735141 | Tempo: 0.034875 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.826002 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.824935 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.756095 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.755024 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.826056 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.824875 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.825164 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.824283 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.825955 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.824720 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.825369 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.757830 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.825268 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.823823 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.825482 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.824884 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.825436 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.824556 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.825250 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 1 | Soma: 1152919824847004137 | Tempo: 0.823960 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.413463 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.412394 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.413226 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.412301 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.412829 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.411794 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.412730 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.411731 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.413269 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.412886 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.413233 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.412376 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.413672 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.412438 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.413185 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.411977 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.414169 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.413221 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.413765 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 2 | Soma: 1152919824847004137 | Tempo: 0.412260 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.277534 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.277023 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276639 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276096 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.277001 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276641 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276706 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276088 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276890 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276592 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276862 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276140 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276841 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276135 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276877 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276217 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276636 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276171 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276939 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 3 | Soma: 1152919824847004137 | Tempo: 0.276312 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207899 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207279 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.208014 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207583 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207414 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207621 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207584 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207122 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207641 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207571 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207756 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207182 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.208144 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207570 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207737 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207381 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.208499 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207149 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.208097 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 4 | Soma: 1152919824847004137 | Tempo: 0.207470 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.167208 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.166973 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.167949 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.165858 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.167382 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.166756 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.168105 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.165737 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.166412 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.166828 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.167171 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.166558 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.167199 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.166525 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.167478 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.165812 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.167348 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.166808 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.167499 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 5 | Soma: 1152919824847004137 | Tempo: 0.166881 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.139270 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.138934 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.141139 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.139160 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.139487 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.139045 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.139334 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.138817 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.141114 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.139072 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.139559 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.139011 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.139498 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.138899 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.140515 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.139221 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.139987 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.139352 segundos</t>
-  </si>
-  <si>
-    <t>Versão CRITICAL | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.140915 segundos</t>
-  </si>
-  <si>
-    <t>Versão REDUCTION | Threads: 6 | Soma: 1152919824847004137 | Tempo: 0.139122 segundos</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>sorted</t>
-  </si>
-  <si>
-    <t>medias</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
   <si>
     <t>Threads</t>
   </si>
@@ -783,43 +71,185 @@
     <t>Speedup</t>
   </si>
   <si>
-    <t>2^28 elementos</t>
-  </si>
-  <si>
-    <t>2^30 elementos</t>
-  </si>
-  <si>
     <t>obs speedup = t(1 thread)/t(n threads)</t>
-  </si>
-  <si>
-    <t>Analise dos Dados</t>
   </si>
   <si>
     <t>Geração dos Gráficos</t>
   </si>
   <si>
-    <t>Tempo Médio (2^28)</t>
+    <t>Alan Gleizer - RA 10416804</t>
   </si>
   <si>
-    <t>Tempo Médio (2^30)</t>
+    <t>Analise de Resultados - Lab OpenACC</t>
   </si>
   <si>
-    <t>Speedup (2^28)</t>
+    <t>n = 10000 (./01_openMP_v1 10000 1)</t>
   </si>
   <si>
-    <t>Speedup (2^30)</t>
+    <t>- SERIAL (openMP com 1 thread)</t>
   </si>
   <si>
-    <t>Analise de Resultados - Lab02 Versão Critical</t>
+    <t>n = 100000 (./01_openMP_v1 100000 1)</t>
   </si>
   <si>
-    <t>Alan Gleizer - RA 10416804</t>
+    <t>n = 500000 (./01_openMP_v1 500000 1)</t>
+  </si>
+  <si>
+    <t>- PARALELO CPU (openMP com N threads)</t>
+  </si>
+  <si>
+    <t>n = 10000 (./01_openMP_v1 10000 4)</t>
+  </si>
+  <si>
+    <t>n = 100000 (./01_openMP_v1 100000 4)</t>
+  </si>
+  <si>
+    <t>n = 500000 (./01_openMP_v1 500000 4)</t>
+  </si>
+  <si>
+    <t>threads = 8</t>
+  </si>
+  <si>
+    <t>n = 10000 (./01_openMP_v1 10000 8)</t>
+  </si>
+  <si>
+    <t>n = 100000 (./01_openMP_v1 100000 8)</t>
+  </si>
+  <si>
+    <t>n = 500000 (./01_openMP_v1 500000 8)</t>
+  </si>
+  <si>
+    <t>threads = 16</t>
+  </si>
+  <si>
+    <t>n = 10000 (./01_openMP_v1 10000 16)</t>
+  </si>
+  <si>
+    <t>n = 100000 (./01_openMP_v1 100000 16)</t>
+  </si>
+  <si>
+    <t>n = 500000 (./01_openMP_v1 500000 16)</t>
+  </si>
+  <si>
+    <t>n = 10000 (./01_openACC_v1 10000)</t>
+  </si>
+  <si>
+    <t>n = 100000 (./01_openACC_v1 100000)</t>
+  </si>
+  <si>
+    <t>n = 500000 (./01_openACC_v1 500000)</t>
+  </si>
+  <si>
+    <t>essa versão sequer rodou, mais de 10 minutos esperando...</t>
+  </si>
+  <si>
+    <t>TESTES AT1 (ODD EVEN)</t>
+  </si>
+  <si>
+    <t>TESTES AT2 (SELECTION)</t>
+  </si>
+  <si>
+    <t>n = 10000 (./02_openMP_v2 10000 1)</t>
+  </si>
+  <si>
+    <t>n = 100000 (./02_openMP_v2 100000 1)</t>
+  </si>
+  <si>
+    <t>n = 500000 (./02_openMP_v2 500000 1)</t>
+  </si>
+  <si>
+    <t>n = 10000 (./02_openMP_v2 10000 4)</t>
+  </si>
+  <si>
+    <t>n = 100000 (./02_openMP_v2 100000 4)</t>
+  </si>
+  <si>
+    <t>n = 500000 (./02_openMP_v2 500000 4)</t>
+  </si>
+  <si>
+    <t>n = 10000 (./02_openMP_v2 10000 8)</t>
+  </si>
+  <si>
+    <t>n = 100000 (./02_openMP_v2 100000 8)</t>
+  </si>
+  <si>
+    <t>n = 500000 (./02_openMP_v2 500000 8)</t>
+  </si>
+  <si>
+    <t>n = 10000 (./02_openMP_v2 10000 16)</t>
+  </si>
+  <si>
+    <t>n = 100000 (./02_openMP_v2 100000 16)</t>
+  </si>
+  <si>
+    <t>n = 500000 (./02_openMP_v2 500000 16)</t>
+  </si>
+  <si>
+    <t>obs. tam bloco fixo em 4</t>
+  </si>
+  <si>
+    <t>n = 10000 (./02_openACC_v2 10000 4)</t>
+  </si>
+  <si>
+    <t>n = 100000 (./02_openACC_v2 100000 4)</t>
+  </si>
+  <si>
+    <t>n = 500000 (./02_openACC_v2 500000 4)</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>Ordenação Odd Even (n = 10000)</t>
+  </si>
+  <si>
+    <t>Analise dos Dados - Odd Even</t>
+  </si>
+  <si>
+    <t>Ordenação Odd Even (n = 100000)</t>
+  </si>
+  <si>
+    <t>Ordenação Odd Even (n = 500000)</t>
+  </si>
+  <si>
+    <t>Tempo Médio (10k)</t>
+  </si>
+  <si>
+    <t>Tempo Médio (100k)</t>
+  </si>
+  <si>
+    <t>Tempo Médio (500k)</t>
+  </si>
+  <si>
+    <t>Speedup (10k)</t>
+  </si>
+  <si>
+    <t>Speedup (100k)</t>
+  </si>
+  <si>
+    <t>Speedup (500k)</t>
+  </si>
+  <si>
+    <t>Ordenação Sample (n = 10000)</t>
+  </si>
+  <si>
+    <t>Ordenação Sample (n = 100000)</t>
+  </si>
+  <si>
+    <t>Ordenação Sample (n = 500000)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -836,15 +266,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -877,14 +307,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,7 +378,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Tempo Médio - Versão Critical</a:t>
+              <a:t>Tempo Médio - Ordenação Odd Even</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -989,11 +423,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ver. critical'!$C$29</c:f>
+              <c:f>'ver. odd even'!$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tempo Médio (2^28)</c:v>
+                  <c:v>Tempo Médio (10k)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1010,29 +444,49 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ver. odd even'!$B$37:$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ver. critical'!$C$30:$C$35</c:f>
+              <c:f>'ver. odd even'!$C$37:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.20707440000000005</c:v>
+                  <c:v>3.1768599999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10397219999999999</c:v>
+                  <c:v>1.98044E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9785100000000003E-2</c:v>
+                  <c:v>1.7480199999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2637400000000001E-2</c:v>
+                  <c:v>1.7141200000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2504399999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5630499999999996E-2</c:v>
+                  <c:v>0.81036759999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,11 +503,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ver. critical'!$D$29</c:f>
+              <c:f>'ver. odd even'!$D$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tempo Médio (2^30)</c:v>
+                  <c:v>Tempo Médio (100k)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1070,29 +524,49 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ver. odd even'!$B$37:$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ver. critical'!$D$30:$D$35</c:f>
+              <c:f>'ver. odd even'!$D$37:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.81860770000000005</c:v>
+                  <c:v>2.9595420000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41335409999999995</c:v>
+                  <c:v>0.85736000000000012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27689249999999999</c:v>
+                  <c:v>0.52165700000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20787849999999999</c:v>
+                  <c:v>0.37426320000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1673751</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14008180000000001</c:v>
+                  <c:v>64.1391414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,6 +575,86 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-297D-4573-9335-C5179021F71A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ver. odd even'!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo Médio (500k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ver. odd even'!$B$37:$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ver. odd even'!$E$37:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>71.566605600000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.210332600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.026101799999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6975037999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-470D-423D-B425-C2E031AF63E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1126,7 +680,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'ver. critical'!$B$29</c15:sqref>
+                          <c15:sqref>'ver. odd even'!$B$36</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1150,35 +704,61 @@
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ver. odd even'!$B$37:$B$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPU</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'ver. critical'!$B$30:$B$35</c15:sqref>
+                          <c15:sqref>'ver. odd even'!$B$37:$B$41</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>4</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1256,6 +836,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1294,7 +875,7 @@
         </c:txPr>
         <c:crossAx val="1651889952"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
@@ -1535,7 +1116,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Speedup - Versão Critical</a:t>
+              <a:t>Speedup - Ordenação Odd Even</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1580,11 +1161,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ver. critical'!$C$39</c:f>
+              <c:f>'ver. odd even'!$C$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Speedup (2^28)</c:v>
+                  <c:v>Speedup (10k)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1601,29 +1182,49 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ver. odd even'!$B$46:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ver. critical'!$C$40:$C$45</c:f>
+              <c:f>'ver. odd even'!$C$46:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9916323786550643</c:v>
+                  <c:v>1.6041182767465814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9673153724792263</c:v>
+                  <c:v>1.8174048351849521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9339785019776823</c:v>
+                  <c:v>1.853347490257391</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8718344453750682</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8117174892297347</c:v>
+                  <c:v>3.9202702575966752E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,11 +1241,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ver. critical'!$D$39</c:f>
+              <c:f>'ver. odd even'!$D$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Speedup (2^30)</c:v>
+                  <c:v>Speedup (100k)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1661,29 +1262,49 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ver. odd even'!$B$46:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ver. critical'!$D$40:$D$45</c:f>
+              <c:f>'ver. odd even'!$D$46:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.980403000720206</c:v>
+                  <c:v>3.4519245124568441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9564097980263102</c:v>
+                  <c:v>5.6733485796222425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9379142143126877</c:v>
+                  <c:v>7.9076489486543169</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8908571227141913</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8437834179743549</c:v>
+                  <c:v>4.6142526005189095E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1717,7 +1338,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'ver. critical'!$B$39</c15:sqref>
+                          <c15:sqref>'ver. odd even'!$B$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1741,35 +1362,61 @@
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ver. odd even'!$B$46:$B$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPU</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'ver. critical'!$B$40:$B$45</c15:sqref>
+                          <c15:sqref>'ver. odd even'!$B$46:$B$50</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>4</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1854,6 +1501,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2125,14 +1773,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Tempo Médio</a:t>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tempo Médio - Ordenação Sample</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> - Versão Reduction</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2176,11 +1826,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ver. reduction'!$C$30</c:f>
+              <c:f>'ver. Sample'!$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tempo Médio (2^28)</c:v>
+                  <c:v>Tempo Médio (10k)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2197,29 +1847,49 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ver. Sample'!$B$37:$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ver. reduction'!$C$31:$C$36</c:f>
+              <c:f>'ver. Sample'!$C$37:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.20612349999999999</c:v>
+                  <c:v>1.8982000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1030459</c:v>
+                  <c:v>2.0956E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9197700000000015E-2</c:v>
+                  <c:v>1.8432000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2051699999999999E-2</c:v>
+                  <c:v>1.9306E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1849399999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4945400000000001E-2</c:v>
+                  <c:v>0.12351479999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2227,7 +1897,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-99AD-47B9-86FE-483E0556271F}"/>
+              <c16:uniqueId val="{00000000-8A78-4EB6-A871-575DAFE7FCE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2236,11 +1906,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ver. reduction'!$D$30</c:f>
+              <c:f>'ver. Sample'!$D$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tempo Médio (2^30)</c:v>
+                  <c:v>Tempo Médio (100k)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2257,29 +1927,49 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ver. Sample'!$B$37:$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ver. reduction'!$D$31:$D$36</c:f>
+              <c:f>'ver. Sample'!$D$37:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.81088900000000008</c:v>
+                  <c:v>9.5334000000000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41233779999999998</c:v>
+                  <c:v>1.0277200000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27634150000000002</c:v>
+                  <c:v>8.6537999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20739279999999999</c:v>
+                  <c:v>8.6797999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16647360000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13906329999999997</c:v>
+                  <c:v>0.13496559999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,7 +1977,87 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-99AD-47B9-86FE-483E0556271F}"/>
+              <c16:uniqueId val="{00000001-8A78-4EB6-A871-575DAFE7FCE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ver. Sample'!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo Médio (500k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ver. Sample'!$B$37:$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ver. Sample'!$E$37:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.7734800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2232599999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.03308E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9164200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20309019999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A78-4EB6-A871-575DAFE7FCE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2300,8 +2070,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1651292048"/>
-        <c:axId val="1651293008"/>
+        <c:axId val="1652741200"/>
+        <c:axId val="1651889952"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2313,7 +2083,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'ver. reduction'!$B$30</c15:sqref>
+                          <c15:sqref>'ver. Sample'!$B$36</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2337,35 +2107,61 @@
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ver. Sample'!$B$37:$B$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPU</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'ver. reduction'!$B$31:$B$36</c15:sqref>
+                          <c15:sqref>'ver. Sample'!$B$37:$B$41</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>4</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2373,7 +2169,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-99AD-47B9-86FE-483E0556271F}"/>
+                    <c16:uniqueId val="{00000003-8A78-4EB6-A871-575DAFE7FCE4}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2382,7 +2178,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1651292048"/>
+        <c:axId val="1652741200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,13 +2205,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Qtd.</a:t>
+                  <a:t>Qtd. Threads</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
-                  <a:t> Threads</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2485,15 +2276,15 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1651293008"/>
+        <c:crossAx val="1651889952"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1651293008"/>
+        <c:axId val="1651889952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,7 +2390,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1651292048"/>
+        <c:crossAx val="1652741200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2720,8 +2511,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Speedup - Versão Reduction</a:t>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Speedup - Ordenação Sample</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2766,11 +2564,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ver. reduction'!$C$40</c:f>
+              <c:f>'ver. Sample'!$C$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Speedup (2^28)</c:v>
+                  <c:v>Speedup (10k)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2787,29 +2585,49 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ver. Sample'!$B$46:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ver. reduction'!$C$41:$C$46</c:f>
+              <c:f>'ver. Sample'!$C$46:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.00030762990085</c:v>
+                  <c:v>0.90580263409047546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9787622999030305</c:v>
+                  <c:v>1.0298394097222223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9599763312245324</c:v>
+                  <c:v>0.983217652543251</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9253633265948862</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8984444304543651</c:v>
+                  <c:v>1.5368198790752205E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2817,7 +2635,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9CB4-4486-9B48-FBD9842F8DFF}"/>
+              <c16:uniqueId val="{00000000-9542-46C0-829D-0B930C145843}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2826,11 +2644,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ver. reduction'!$D$40</c:f>
+              <c:f>'ver. Sample'!$D$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Speedup (2^30)</c:v>
+                  <c:v>Speedup (100k)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2847,29 +2665,49 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ver. Sample'!$B$46:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ver. reduction'!$D$41:$D$46</c:f>
+              <c:f>'ver. Sample'!$D$46:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9665647922649832</c:v>
+                  <c:v>0.92762620168917598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9343728683531065</c:v>
+                  <c:v>1.1016432087637802</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9099187628500127</c:v>
+                  <c:v>1.0983432797990738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8709765392230358</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8310783650323286</c:v>
+                  <c:v>7.0635776820167515E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2877,7 +2715,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9CB4-4486-9B48-FBD9842F8DFF}"/>
+              <c16:uniqueId val="{00000001-9542-46C0-829D-0B930C145843}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2890,8 +2728,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1854607856"/>
-        <c:axId val="1854608336"/>
+        <c:axId val="1854209280"/>
+        <c:axId val="1854208320"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2903,7 +2741,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'ver. reduction'!$B$40</c15:sqref>
+                          <c15:sqref>'ver. Sample'!$B$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2927,35 +2765,61 @@
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ver. Sample'!$B$46:$B$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>GPU</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'ver. reduction'!$B$41:$B$46</c15:sqref>
+                          <c15:sqref>'ver. Sample'!$B$46:$B$50</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>4</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2963,7 +2827,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-9CB4-4486-9B48-FBD9842F8DFF}"/>
+                    <c16:uniqueId val="{00000002-9542-46C0-829D-0B930C145843}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2972,7 +2836,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1854607856"/>
+        <c:axId val="1854209280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,7 +2862,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Qtd. Threads</a:t>
                 </a:r>
               </a:p>
@@ -3033,6 +2904,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3069,7 +2941,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1854608336"/>
+        <c:crossAx val="1854208320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3077,7 +2949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1854608336"/>
+        <c:axId val="1854208320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3183,7 +3055,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1854607856"/>
+        <c:crossAx val="1854209280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5499,15 +5371,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128585</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5535,15 +5407,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5576,26 +5448,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128585</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFE43B0-1BA2-01A8-D8BA-A0A37FA1A681}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D65766E-B678-4236-8ECF-6532B5E206F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5612,26 +5486,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCA5AB6-547A-93E7-2654-641491BC06AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FA2039-C24A-4A0F-9B26-437D1C17251D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5965,52 +5841,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2631627-3C80-4250-979B-61FE60E508A4}">
-  <dimension ref="B2:F45"/>
+  <dimension ref="B2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="3" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>255</v>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>256</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>248</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>246</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -6018,7 +5895,8 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.20707440000000005</v>
+        <f>raw!C6</f>
+        <v>3.1768599999999994E-2</v>
       </c>
       <c r="D9">
         <f>$C$9/C9</f>
@@ -6027,345 +5905,428 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0.10397219999999999</v>
+        <f>raw!C29</f>
+        <v>1.98044E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D14" si="0">$C$9/C10</f>
-        <v>1.9916323786550643</v>
+        <f t="shared" ref="D10:D13" si="0">$C$9/C10</f>
+        <v>1.6041182767465814</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>6.9785100000000003E-2</v>
+        <f>raw!C51</f>
+        <v>1.7480199999999998E-2</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>2.9673153724792263</v>
+        <v>1.8174048351849521</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>5.2637400000000001E-2</v>
+        <f>raw!C73</f>
+        <v>1.7141200000000002E-2</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>3.9339785019776823</v>
+        <v>1.853347490257391</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>5</v>
+      <c r="B13" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>4.2504399999999998E-2</v>
+        <f>raw!C95</f>
+        <v>0.81036759999999997</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>4.8718344453750682</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>3.5630499999999996E-2</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>5.8117174892297347</v>
+        <v>3.9202702575966752E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>247</v>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>raw!C13</f>
+        <v>2.9595420000000003</v>
+      </c>
+      <c r="D17">
+        <f>$C$17/C17</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" t="s">
-        <v>244</v>
-      </c>
-      <c r="D18" t="s">
-        <v>245</v>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6">
+        <f>raw!C36</f>
+        <v>0.85736000000000012</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D21" si="1">$C$17/C18</f>
+        <v>3.4519245124568441</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0.81860770000000005</v>
+        <v>8</v>
+      </c>
+      <c r="C19" s="6">
+        <f>raw!C58</f>
+        <v>0.52165700000000004</v>
       </c>
       <c r="D19">
-        <f>$C$19/C19</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>5.6733485796222425</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>0.41335409999999995</v>
+        <v>16</v>
+      </c>
+      <c r="C20" s="6">
+        <f>raw!C80</f>
+        <v>0.37426320000000002</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D24" si="1">$C$19/C20</f>
-        <v>1.980403000720206</v>
+        <f t="shared" si="1"/>
+        <v>7.9076489486543169</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>0.27689249999999999</v>
+      <c r="B21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="6">
+        <f>raw!C102</f>
+        <v>64.1391414</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>2.9564097980263102</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22">
+        <v>4.6142526005189095E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f>raw!C20</f>
+        <v>71.566605600000003</v>
+      </c>
+      <c r="D25">
+        <f>$C$25/C25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>4</v>
       </c>
-      <c r="C22">
-        <v>0.20787849999999999</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>3.9379142143126877</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>0.1673751</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>4.8908571227141913</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>0.14008180000000001</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>5.8437834179743549</v>
+      <c r="C26">
+        <f>raw!C43</f>
+        <v>19.210332600000001</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D28" si="2">$C$25/C26</f>
+        <v>3.725422515589345</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>250</v>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <f>raw!C65</f>
+        <v>10.026101799999999</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>7.1380290194141063</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <f>raw!C87</f>
+        <v>5.6975037999999998</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>12.56104569864438</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>243</v>
-      </c>
-      <c r="C29" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="B29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <f>raw!C109</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37">
         <f>B9</f>
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="C37">
         <f>C9</f>
-        <v>0.20707440000000005</v>
-      </c>
-      <c r="D30">
-        <f>C19</f>
-        <v>0.81860770000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f t="shared" ref="B31:C31" si="2">B10</f>
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="2"/>
-        <v>0.10397219999999999</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ref="D31:D35" si="3">C20</f>
-        <v>0.41335409999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <f t="shared" ref="B32:C32" si="4">B11</f>
-        <v>3</v>
-      </c>
-      <c r="C32">
+        <v>3.1768599999999994E-2</v>
+      </c>
+      <c r="D37">
+        <f>C17</f>
+        <v>2.9595420000000003</v>
+      </c>
+      <c r="E37">
+        <f>C25</f>
+        <v>71.566605600000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f>B10</f>
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <f>C10</f>
+        <v>1.98044E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D41" si="3">C18</f>
+        <v>0.85736000000000012</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E41" si="4">C26</f>
+        <v>19.210332600000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>B11</f>
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <f>C11</f>
+        <v>1.7480199999999998E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>0.52165700000000004</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="4"/>
-        <v>6.9785100000000003E-2</v>
-      </c>
-      <c r="D32">
+        <v>10.026101799999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>B12</f>
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <f>C12</f>
+        <v>1.7141200000000002E-2</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="3"/>
-        <v>0.27689249999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <f t="shared" ref="B33:C33" si="5">B12</f>
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="5"/>
-        <v>5.2637400000000001E-2</v>
-      </c>
-      <c r="D33">
+        <v>0.37426320000000002</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>5.6975037999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="str">
+        <f>B13</f>
+        <v>GPU</v>
+      </c>
+      <c r="C41">
+        <f>C13</f>
+        <v>0.81036759999999997</v>
+      </c>
+      <c r="D41">
         <f t="shared" si="3"/>
-        <v>0.20787849999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <f t="shared" ref="B34:C34" si="6">B13</f>
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="6"/>
-        <v>4.2504399999999998E-2</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="3"/>
-        <v>0.1673751</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <f t="shared" ref="B35:C35" si="7">B14</f>
-        <v>6</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="7"/>
-        <v>3.5630499999999996E-2</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="3"/>
-        <v>0.14008180000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" t="s">
-        <v>253</v>
-      </c>
-      <c r="D39" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <f>B30</f>
+        <v>64.1391414</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>B37</f>
         <v>1</v>
       </c>
-      <c r="C40">
+      <c r="C46">
         <f>D9</f>
         <v>1</v>
       </c>
-      <c r="D40">
-        <f>D19</f>
+      <c r="D46">
+        <f>D17</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <f t="shared" ref="B41:B45" si="8">B31</f>
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ref="C41:C45" si="9">D10</f>
-        <v>1.9916323786550643</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ref="D41:D45" si="10">D20</f>
-        <v>1.980403000720206</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="9"/>
-        <v>2.9673153724792263</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="10"/>
-        <v>2.9564097980263102</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <f t="shared" si="8"/>
+      <c r="E46">
+        <f>D25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>B38</f>
         <v>4</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="9"/>
-        <v>3.9339785019776823</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="10"/>
-        <v>3.9379142143126877</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="9"/>
-        <v>4.8718344453750682</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="10"/>
-        <v>4.8908571227141913</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="9"/>
-        <v>5.8117174892297347</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="10"/>
-        <v>5.8437834179743549</v>
+      <c r="C47">
+        <f>D10</f>
+        <v>1.6041182767465814</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:D50" si="5">D18</f>
+        <v>3.4519245124568441</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47:E50" si="6">D26</f>
+        <v>3.725422515589345</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>B39</f>
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <f>D11</f>
+        <v>1.8174048351849521</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="5"/>
+        <v>5.6733485796222425</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>7.1380290194141063</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f>B40</f>
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <f>D12</f>
+        <v>1.853347490257391</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="5"/>
+        <v>7.9076489486543169</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>12.56104569864438</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="str">
+        <f>B41</f>
+        <v>GPU</v>
+      </c>
+      <c r="C50">
+        <f>D13</f>
+        <v>3.9202702575966752E-2</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="5"/>
+        <v>4.6142526005189095E-2</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6376,54 +6337,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5089E9A7-2D6B-42CC-B9C0-6251A834DA2B}">
-  <dimension ref="B2:F46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AC4188-E004-4CC3-9FD8-11B8E50CFDB6}">
+  <dimension ref="B2:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="3" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>255</v>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>256</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>248</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>246</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -6431,7 +6392,8 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.20612349999999999</v>
+        <f>raw!H6</f>
+        <v>1.8982000000000003E-3</v>
       </c>
       <c r="D9">
         <f>$C$9/C9</f>
@@ -6440,4129 +6402,1376 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0.1030459</v>
+        <f>raw!H29</f>
+        <v>2.0956E-3</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D14" si="0">$C$9/C10</f>
-        <v>2.00030762990085</v>
+        <f t="shared" ref="D10:D13" si="0">$C$9/C10</f>
+        <v>0.90580263409047546</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>6.9197700000000015E-2</v>
+        <f>raw!H51</f>
+        <v>1.8432000000000001E-3</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>2.9787622999030305</v>
+        <v>1.0298394097222223</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>5.2051699999999999E-2</v>
+        <f>raw!H73</f>
+        <v>1.9306E-3</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>3.9599763312245324</v>
+        <v>0.983217652543251</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>5</v>
+      <c r="B13" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>4.1849399999999995E-2</v>
+        <f>raw!H97</f>
+        <v>0.12351479999999999</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>4.9253633265948862</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>3.4945400000000001E-2</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>5.8984444304543651</v>
+        <v>1.5368198790752205E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>247</v>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>raw!H13</f>
+        <v>9.5334000000000009E-3</v>
+      </c>
+      <c r="D17">
+        <f>$C$17/C17</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" t="s">
-        <v>244</v>
-      </c>
-      <c r="D18" t="s">
-        <v>245</v>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6">
+        <f>raw!H36</f>
+        <v>1.0277200000000002E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D21" si="1">$C$17/C18</f>
+        <v>0.92762620168917598</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0.81088900000000008</v>
+        <v>8</v>
+      </c>
+      <c r="C19" s="6">
+        <f>raw!H58</f>
+        <v>8.6537999999999997E-3</v>
       </c>
       <c r="D19">
-        <f>$C$19/C19</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.1016432087637802</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>0.41233779999999998</v>
+        <v>16</v>
+      </c>
+      <c r="C20" s="6">
+        <f>raw!H80</f>
+        <v>8.6797999999999997E-3</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D24" si="1">$C$19/C20</f>
-        <v>1.9665647922649832</v>
+        <f t="shared" si="1"/>
+        <v>1.0983432797990738</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>0.27634150000000002</v>
+      <c r="B21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="6">
+        <f>raw!H104</f>
+        <v>0.13496559999999999</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>2.9343728683531065</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22">
+        <v>7.0635776820167515E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f>raw!H20</f>
+        <v>4.7734800000000001E-2</v>
+      </c>
+      <c r="D25">
+        <f>$C$25/C25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>4</v>
       </c>
-      <c r="C22">
-        <v>0.20739279999999999</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>3.9099187628500127</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>0.16647360000000003</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>4.8709765392230358</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>0.13906329999999997</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>5.8310783650323286</v>
+      <c r="C26">
+        <f>raw!H43</f>
+        <v>4.2232599999999995E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D29" si="2">$C$25/C26</f>
+        <v>1.130283240908682</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <f>raw!H65</f>
+        <v>4.03308E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>1.1835817786902318</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>243</v>
-      </c>
-      <c r="C30" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <f>raw!H87</f>
+        <v>3.9164200000000003E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>1.2188376119006643</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <f>raw!H111</f>
+        <v>0.20309019999999997</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0.23504236048809843</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37">
         <f>B9</f>
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="C37">
         <f>C9</f>
-        <v>0.20612349999999999</v>
-      </c>
-      <c r="D31">
-        <f>C19</f>
-        <v>0.81088900000000008</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <f t="shared" ref="B32:B36" si="2">B10</f>
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ref="C32:C36" si="3">C10</f>
-        <v>0.1030459</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ref="D32:D36" si="4">C20</f>
-        <v>0.41233779999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C33">
+        <v>1.8982000000000003E-3</v>
+      </c>
+      <c r="D37">
+        <f>C17</f>
+        <v>9.5334000000000009E-3</v>
+      </c>
+      <c r="E37">
+        <f>C25</f>
+        <v>4.7734800000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f>B10</f>
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <f>C10</f>
+        <v>2.0956E-3</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D41" si="3">C18</f>
+        <v>1.0277200000000002E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E41" si="4">C26</f>
+        <v>4.2232599999999995E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>B11</f>
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <f>C11</f>
+        <v>1.8432000000000001E-3</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="3"/>
-        <v>6.9197700000000015E-2</v>
-      </c>
-      <c r="D33">
+        <v>8.6537999999999997E-3</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="4"/>
-        <v>0.27634150000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C34">
+        <v>4.03308E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>B12</f>
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <f>C12</f>
+        <v>1.9306E-3</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="3"/>
-        <v>5.2051699999999999E-2</v>
-      </c>
-      <c r="D34">
+        <v>8.6797999999999997E-3</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="4"/>
-        <v>0.20739279999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="C35">
+        <v>3.9164200000000003E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="str">
+        <f>B13</f>
+        <v>GPU</v>
+      </c>
+      <c r="C41">
+        <f>C13</f>
+        <v>0.12351479999999999</v>
+      </c>
+      <c r="D41">
         <f t="shared" si="3"/>
-        <v>4.1849399999999995E-2</v>
-      </c>
-      <c r="D35">
+        <v>0.13496559999999999</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="4"/>
-        <v>0.16647360000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="3"/>
-        <v>3.4945400000000001E-2</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="4"/>
-        <v>0.13906329999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="str">
-        <f>B18</f>
-        <v>Threads</v>
-      </c>
-      <c r="C40" t="s">
-        <v>253</v>
-      </c>
-      <c r="D40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <f t="shared" ref="B41:B45" si="5">B19</f>
+        <v>0.20309019999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>B37</f>
         <v>1</v>
       </c>
-      <c r="C41">
+      <c r="C46">
         <f>D9</f>
         <v>1</v>
       </c>
-      <c r="D41">
-        <f>D19</f>
+      <c r="D46">
+        <f>D17</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42">
+      <c r="E46">
+        <f>D25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>B38</f>
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <f>D10</f>
+        <v>0.90580263409047546</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:D50" si="5">D18</f>
+        <v>0.92762620168917598</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47:E50" si="6">D26</f>
+        <v>1.130283240908682</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>B39</f>
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <f>D11</f>
+        <v>1.0298394097222223</v>
+      </c>
+      <c r="D48">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ref="C42:C46" si="6">D10</f>
-        <v>2.00030762990085</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ref="D42:D46" si="7">D20</f>
-        <v>1.9665647922649832</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43">
+        <v>1.1016432087637802</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>1.1835817786902318</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f>B40</f>
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <f>D12</f>
+        <v>0.983217652543251</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="C43">
+        <v>1.0983432797990738</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="6"/>
-        <v>2.9787622999030305</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="7"/>
-        <v>2.9343728683531065</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44">
+        <v>1.2188376119006643</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="str">
+        <f>B41</f>
+        <v>GPU</v>
+      </c>
+      <c r="C50">
+        <f>D13</f>
+        <v>1.5368198790752205E-2</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="C44">
+        <v>7.0635776820167515E-2</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="6"/>
-        <v>3.9599763312245324</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="7"/>
-        <v>3.9099187628500127</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="6"/>
-        <v>4.9253633265948862</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="7"/>
-        <v>4.8709765392230358</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>6</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="6"/>
-        <v>5.8984444304543651</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="7"/>
-        <v>5.8310783650323286</v>
+        <v>0.23504236048809843</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4EE91A-7814-44F2-BD5E-4F462DC98BF6}">
-  <dimension ref="B2:H124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AB6F0F-7AAB-4707-BFC9-A0F8659FAAEB}">
+  <dimension ref="B1:H115"/>
   <sheetViews>
-    <sheetView topLeftCell="D85" workbookViewId="0">
-      <selection activeCell="H115" activeCellId="5" sqref="H65 H75 H85 H95 H105 H115"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="83.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="82.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="7" max="7" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>242</v>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4">
-        <f>SUBSTITUTE(TRIM(MID(B4, SEARCH("Tempo:", B4) + 6, SEARCH("segundos", B4) - SEARCH("Tempo:", B4) - 7)), ".", ",") * 1</f>
-        <v>0.82600200000000001</v>
-      </c>
-      <c r="E4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4">
-        <v>0.82600200000000001</v>
-      </c>
-      <c r="H4">
-        <f>AVERAGE(F4:F13)</f>
-        <v>0.81860770000000005</v>
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C68" si="0">SUBSTITUTE(TRIM(MID(B5, SEARCH("Tempo:", B5) + 6, SEARCH("segundos", B5) - SEARCH("Tempo:", B5) - 7)), ".", ",") * 1</f>
-        <v>0.82493499999999997</v>
-      </c>
-      <c r="E5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5">
-        <v>0.75609499999999996</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.75609499999999996</v>
-      </c>
-      <c r="E6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6">
-        <v>0.82605600000000001</v>
+      <c r="B6">
+        <v>3.1692999999999999E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>AVERAGE(B6:B10)</f>
+        <v>3.1768599999999994E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.111E-3</v>
+      </c>
+      <c r="H6" s="1">
+        <f>AVERAGE(G6:G10)</f>
+        <v>1.8982000000000003E-3</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.75502400000000003</v>
-      </c>
-      <c r="E7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7">
-        <v>0.82516400000000001</v>
+      <c r="B7">
+        <v>3.2049000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>2.111E-3</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.82605600000000001</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>0.82595499999999999</v>
+      <c r="B8">
+        <v>3.1848000000000001E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.7210000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.82487500000000002</v>
-      </c>
-      <c r="E9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9">
-        <v>0.82536900000000002</v>
+      <c r="B9">
+        <v>3.1364999999999997E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.902E-3</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.82516400000000001</v>
-      </c>
-      <c r="E10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10">
-        <v>0.825268</v>
+      <c r="B10">
+        <v>3.1888E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.6459999999999999E-3</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.82428299999999999</v>
-      </c>
-      <c r="E11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11">
-        <v>0.82548200000000005</v>
-      </c>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.82595499999999999</v>
-      </c>
-      <c r="E12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12">
-        <v>0.82543599999999995</v>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.82472000000000001</v>
-      </c>
-      <c r="E13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13">
-        <v>0.82525000000000004</v>
+      <c r="B13" s="5">
+        <v>2.9642390000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(B13:B17)</f>
+        <v>2.9595420000000003</v>
+      </c>
+      <c r="G13">
+        <v>9.6430000000000005E-3</v>
+      </c>
+      <c r="H13" s="1">
+        <f>AVERAGE(G13:G17)</f>
+        <v>9.5334000000000009E-3</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.82536900000000002</v>
-      </c>
-      <c r="E14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14">
-        <v>0.41346300000000002</v>
-      </c>
-      <c r="H14">
-        <f>AVERAGE(F14:F23)</f>
-        <v>0.41335409999999995</v>
+      <c r="B14" s="5">
+        <v>2.9602650000000001</v>
+      </c>
+      <c r="G14">
+        <v>9.2540000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.75783</v>
-      </c>
-      <c r="E15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15">
-        <v>0.41322599999999998</v>
+      <c r="B15" s="5">
+        <v>2.9589479999999999</v>
+      </c>
+      <c r="G15">
+        <v>9.5580000000000005E-3</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.825268</v>
-      </c>
-      <c r="E16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16">
-        <v>0.412829</v>
+      <c r="B16">
+        <v>2.9608590000000001</v>
+      </c>
+      <c r="G16">
+        <v>9.5960000000000004E-3</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.82382299999999997</v>
-      </c>
-      <c r="E17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17">
-        <v>0.41272999999999999</v>
+      <c r="B17">
+        <v>2.9533990000000001</v>
+      </c>
+      <c r="G17">
+        <v>9.6159999999999995E-3</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.82548200000000005</v>
-      </c>
-      <c r="E18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18">
-        <v>0.413269</v>
-      </c>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.82488399999999995</v>
-      </c>
-      <c r="E19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19">
-        <v>0.41323300000000002</v>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.82543599999999995</v>
-      </c>
-      <c r="E20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20">
-        <v>0.41367199999999998</v>
+      <c r="B20" s="5">
+        <v>70.022812999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <f>AVERAGE(B20:B24)</f>
+        <v>71.566605600000003</v>
+      </c>
+      <c r="G20">
+        <v>4.9856999999999999E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <f>AVERAGE(G20:G24)</f>
+        <v>4.7734800000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.82455599999999996</v>
-      </c>
-      <c r="E21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21">
-        <v>0.41318500000000002</v>
+      <c r="B21" s="5">
+        <v>71.211158999999995</v>
+      </c>
+      <c r="G21">
+        <v>4.6671999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.82525000000000004</v>
-      </c>
-      <c r="E22" t="s">
-        <v>155</v>
-      </c>
-      <c r="F22">
-        <v>0.41416900000000001</v>
+      <c r="B22" s="5">
+        <v>72.082040000000006</v>
+      </c>
+      <c r="G22">
+        <v>4.7392999999999998E-2</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.82396000000000003</v>
-      </c>
-      <c r="E23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23">
-        <v>0.41376499999999999</v>
+      <c r="B23">
+        <v>73.168581000000003</v>
+      </c>
+      <c r="G23">
+        <v>4.7878999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.41346300000000002</v>
-      </c>
-      <c r="E24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24">
-        <v>0.277534</v>
-      </c>
-      <c r="H24">
-        <f>AVERAGE(F24:F33)</f>
-        <v>0.27689249999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.41239399999999998</v>
-      </c>
-      <c r="E25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25">
-        <v>0.27663900000000002</v>
+      <c r="B24">
+        <v>71.348434999999995</v>
+      </c>
+      <c r="G24">
+        <v>4.6872999999999998E-2</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.41322599999999998</v>
-      </c>
-      <c r="E26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26">
-        <v>0.277001</v>
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.41230099999999997</v>
-      </c>
-      <c r="E27" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27">
-        <v>0.27670600000000001</v>
+      <c r="B27" t="e" cm="1">
+        <f t="array" ref="B27">- threads = 4</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G27" t="e" cm="1">
+        <f t="array" ref="G27">- threads = 4</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.412829</v>
-      </c>
-      <c r="E28" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28">
-        <v>0.27689000000000002</v>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.41179399999999999</v>
-      </c>
-      <c r="E29" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29">
-        <v>0.276862</v>
+      <c r="B29">
+        <v>2.0346E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <f>AVERAGE(B29:B33)</f>
+        <v>1.98044E-2</v>
+      </c>
+      <c r="G29">
+        <v>2.4190000000000001E-3</v>
+      </c>
+      <c r="H29" s="1">
+        <f>AVERAGE(G29:G33)</f>
+        <v>2.0956E-3</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.41272999999999999</v>
-      </c>
-      <c r="E30" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30">
-        <v>0.276841</v>
+      <c r="B30">
+        <v>1.9598000000000001E-2</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1.64E-3</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>0.41173100000000001</v>
-      </c>
-      <c r="E31" t="s">
-        <v>173</v>
-      </c>
-      <c r="F31">
-        <v>0.27687699999999998</v>
+      <c r="B31">
+        <v>1.9488999999999999E-2</v>
+      </c>
+      <c r="G31" s="6">
+        <v>2.4499999999999999E-3</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>0.413269</v>
-      </c>
-      <c r="E32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32">
-        <v>0.27663599999999999</v>
+      <c r="B32" s="6">
+        <v>1.9640000000000001E-2</v>
+      </c>
+      <c r="G32">
+        <v>2.1250000000000002E-3</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0.41288599999999998</v>
-      </c>
-      <c r="E33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33">
-        <v>0.27693899999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>0.41323300000000002</v>
-      </c>
-      <c r="E34" t="s">
-        <v>179</v>
-      </c>
-      <c r="F34">
-        <v>0.207899</v>
-      </c>
-      <c r="H34">
-        <f>AVERAGE(F34:F43)</f>
-        <v>0.20787849999999999</v>
+      <c r="B33">
+        <v>1.9949000000000001E-2</v>
+      </c>
+      <c r="G33">
+        <v>1.8439999999999999E-3</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>0.41237600000000002</v>
-      </c>
-      <c r="E35" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35">
-        <v>0.208014</v>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0.41367199999999998</v>
-      </c>
-      <c r="E36" t="s">
-        <v>183</v>
-      </c>
-      <c r="F36">
-        <v>0.20741399999999999</v>
+      <c r="B36">
+        <v>0.85444799999999999</v>
+      </c>
+      <c r="C36" s="1">
+        <f>AVERAGE(B36:B40)</f>
+        <v>0.85736000000000012</v>
+      </c>
+      <c r="G36">
+        <v>9.4900000000000002E-3</v>
+      </c>
+      <c r="H36" s="1">
+        <f>AVERAGE(G36:G40)</f>
+        <v>1.0277200000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0.41243800000000003</v>
-      </c>
-      <c r="E37" t="s">
-        <v>185</v>
-      </c>
-      <c r="F37">
-        <v>0.20758399999999999</v>
+      <c r="B37">
+        <v>0.85551699999999997</v>
+      </c>
+      <c r="G37">
+        <v>1.0196E-2</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>0.41318500000000002</v>
-      </c>
-      <c r="E38" t="s">
-        <v>187</v>
-      </c>
-      <c r="F38">
-        <v>0.20764099999999999</v>
+      <c r="B38">
+        <v>0.86703600000000003</v>
+      </c>
+      <c r="G38">
+        <v>1.1573999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>0.41197699999999998</v>
-      </c>
-      <c r="E39" t="s">
-        <v>189</v>
-      </c>
-      <c r="F39">
-        <v>0.207756</v>
+      <c r="B39">
+        <v>0.85426299999999999</v>
+      </c>
+      <c r="G39">
+        <v>8.5990000000000007E-3</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>0.41416900000000001</v>
-      </c>
-      <c r="E40" t="s">
-        <v>191</v>
-      </c>
-      <c r="F40">
-        <v>0.208144</v>
+      <c r="B40">
+        <v>0.85553599999999996</v>
+      </c>
+      <c r="G40">
+        <v>1.1527000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>0.413221</v>
-      </c>
-      <c r="E41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41">
-        <v>0.207737</v>
-      </c>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>0.41376499999999999</v>
-      </c>
-      <c r="E42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42">
-        <v>0.20849899999999999</v>
+      <c r="B42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>0.41226000000000002</v>
-      </c>
-      <c r="E43" t="s">
-        <v>197</v>
-      </c>
-      <c r="F43">
-        <v>0.208097</v>
+      <c r="B43" s="5">
+        <v>19.319997999999998</v>
+      </c>
+      <c r="C43" s="1">
+        <f>AVERAGE(B43:B47)</f>
+        <v>19.210332600000001</v>
+      </c>
+      <c r="G43">
+        <v>4.3394000000000002E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <f>AVERAGE(G43:G47)</f>
+        <v>4.2232599999999995E-2</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>0.277534</v>
-      </c>
-      <c r="E44" t="s">
-        <v>199</v>
-      </c>
-      <c r="F44">
-        <v>0.167208</v>
-      </c>
-      <c r="H44">
-        <f>AVERAGE(F44:F53)</f>
-        <v>0.1673751</v>
+      <c r="B44" s="5">
+        <v>19.175685999999999</v>
+      </c>
+      <c r="G44" s="6">
+        <v>3.3599999999999998E-2</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>0.27702300000000002</v>
-      </c>
-      <c r="E45" t="s">
-        <v>201</v>
-      </c>
-      <c r="F45">
-        <v>0.16794899999999999</v>
+      <c r="B45" s="5">
+        <v>19.162085000000001</v>
+      </c>
+      <c r="G45" s="6">
+        <v>4.6010000000000002E-2</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>0.27663900000000002</v>
-      </c>
-      <c r="E46" t="s">
-        <v>203</v>
-      </c>
-      <c r="F46">
-        <v>0.167382</v>
+      <c r="B46">
+        <v>19.192800999999999</v>
+      </c>
+      <c r="G46">
+        <v>4.6697000000000002E-2</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>0.27609600000000001</v>
-      </c>
-      <c r="E47" t="s">
-        <v>205</v>
-      </c>
-      <c r="F47">
-        <v>0.168105</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>0.277001</v>
-      </c>
-      <c r="E48" t="s">
-        <v>207</v>
-      </c>
-      <c r="F48">
-        <v>0.166412</v>
+      <c r="B47">
+        <v>19.201093</v>
+      </c>
+      <c r="G47">
+        <v>4.1461999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>0.27664100000000003</v>
-      </c>
-      <c r="E49" t="s">
-        <v>209</v>
-      </c>
-      <c r="F49">
-        <v>0.16717099999999999</v>
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>0.27670600000000001</v>
-      </c>
-      <c r="E50" t="s">
-        <v>211</v>
-      </c>
-      <c r="F50">
-        <v>0.16719899999999999</v>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>0.276088</v>
-      </c>
-      <c r="E51" t="s">
-        <v>213</v>
-      </c>
-      <c r="F51">
-        <v>0.16747799999999999</v>
+      <c r="B51">
+        <v>1.7933999999999999E-2</v>
+      </c>
+      <c r="C51" s="1">
+        <f>AVERAGE(B51:B55)</f>
+        <v>1.7480199999999998E-2</v>
+      </c>
+      <c r="G51">
+        <v>1.8060000000000001E-3</v>
+      </c>
+      <c r="H51" s="1">
+        <f>AVERAGE(G51:G55)</f>
+        <v>1.8432000000000001E-3</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>0.27689000000000002</v>
-      </c>
-      <c r="E52" t="s">
-        <v>215</v>
-      </c>
-      <c r="F52">
-        <v>0.167348</v>
+      <c r="B52">
+        <v>1.7392999999999999E-2</v>
+      </c>
+      <c r="G52">
+        <v>1.7880000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>0.276592</v>
-      </c>
-      <c r="E53" t="s">
-        <v>217</v>
-      </c>
-      <c r="F53">
-        <v>0.16749900000000001</v>
+      <c r="B53">
+        <v>1.7881000000000001E-2</v>
+      </c>
+      <c r="G53">
+        <v>1.717E-3</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
-        <v>0.276862</v>
-      </c>
-      <c r="E54" t="s">
-        <v>219</v>
-      </c>
-      <c r="F54">
-        <v>0.13927</v>
-      </c>
-      <c r="H54">
-        <f>AVERAGE(F54:F63)</f>
-        <v>0.14008180000000001</v>
+      <c r="B54">
+        <v>1.7044E-2</v>
+      </c>
+      <c r="G54">
+        <v>2.1150000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="0"/>
-        <v>0.27614</v>
-      </c>
-      <c r="E55" t="s">
-        <v>221</v>
-      </c>
-      <c r="F55">
-        <v>0.14113899999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="0"/>
-        <v>0.276841</v>
-      </c>
-      <c r="E56" t="s">
-        <v>223</v>
-      </c>
-      <c r="F56">
-        <v>0.139487</v>
+      <c r="B55">
+        <v>1.7149000000000001E-2</v>
+      </c>
+      <c r="G55">
+        <v>1.7899999999999999E-3</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
-        <v>0.27613500000000002</v>
-      </c>
-      <c r="E57" t="s">
-        <v>225</v>
-      </c>
-      <c r="F57">
-        <v>0.13933400000000001</v>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="0"/>
-        <v>0.27687699999999998</v>
-      </c>
-      <c r="E58" t="s">
-        <v>227</v>
-      </c>
-      <c r="F58">
-        <v>0.14111399999999999</v>
+      <c r="B58">
+        <v>0.52241700000000002</v>
+      </c>
+      <c r="C58" s="1">
+        <f>AVERAGE(B58:B62)</f>
+        <v>0.52165700000000004</v>
+      </c>
+      <c r="G58">
+        <v>8.1539999999999998E-3</v>
+      </c>
+      <c r="H58" s="1">
+        <f>AVERAGE(G58:G62)</f>
+        <v>8.6537999999999997E-3</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="0"/>
-        <v>0.27621699999999999</v>
-      </c>
-      <c r="E59" t="s">
-        <v>229</v>
-      </c>
-      <c r="F59">
-        <v>0.13955899999999999</v>
+      <c r="B59">
+        <v>0.52547100000000002</v>
+      </c>
+      <c r="G59">
+        <v>8.3079999999999994E-3</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="0"/>
-        <v>0.27663599999999999</v>
-      </c>
-      <c r="E60" t="s">
-        <v>231</v>
-      </c>
-      <c r="F60">
-        <v>0.13949800000000001</v>
+      <c r="B60">
+        <v>0.52278400000000003</v>
+      </c>
+      <c r="G60">
+        <v>7.6189999999999999E-3</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="0"/>
-        <v>0.276171</v>
-      </c>
-      <c r="E61" t="s">
-        <v>233</v>
-      </c>
-      <c r="F61">
-        <v>0.140515</v>
+      <c r="B61">
+        <v>0.51684699999999995</v>
+      </c>
+      <c r="G61">
+        <v>9.7610000000000006E-3</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>177</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="0"/>
-        <v>0.27693899999999999</v>
-      </c>
-      <c r="E62" t="s">
-        <v>235</v>
-      </c>
-      <c r="F62">
-        <v>0.139987</v>
+      <c r="B62">
+        <v>0.52076599999999995</v>
+      </c>
+      <c r="G62">
+        <v>9.4269999999999996E-3</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="0"/>
-        <v>0.276312</v>
-      </c>
-      <c r="E63" t="s">
-        <v>237</v>
-      </c>
-      <c r="F63">
-        <v>0.14091500000000001</v>
-      </c>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="0"/>
-        <v>0.207899</v>
+      <c r="B64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="0"/>
-        <v>0.20727899999999999</v>
-      </c>
-      <c r="E65" t="s">
-        <v>120</v>
-      </c>
-      <c r="F65">
-        <v>0.82493499999999997</v>
-      </c>
-      <c r="H65">
-        <f>AVERAGE(F65:F74)</f>
-        <v>0.81088900000000008</v>
+      <c r="B65" s="5">
+        <v>10.025266</v>
+      </c>
+      <c r="C65" s="1">
+        <f>AVERAGE(B65:B69)</f>
+        <v>10.026101799999999</v>
+      </c>
+      <c r="G65">
+        <v>4.0439000000000003E-2</v>
+      </c>
+      <c r="H65" s="1">
+        <f>AVERAGE(G65:G69)</f>
+        <v>4.03308E-2</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>181</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="0"/>
-        <v>0.208014</v>
-      </c>
-      <c r="E66" t="s">
-        <v>122</v>
-      </c>
-      <c r="F66">
-        <v>0.75502400000000003</v>
+      <c r="B66" s="5">
+        <v>10.020863</v>
+      </c>
+      <c r="G66">
+        <v>4.0391999999999997E-2</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="0"/>
-        <v>0.20758299999999999</v>
-      </c>
-      <c r="E67" t="s">
-        <v>124</v>
-      </c>
-      <c r="F67">
-        <v>0.82487500000000002</v>
+      <c r="B67" s="5">
+        <v>10.050874</v>
+      </c>
+      <c r="G67">
+        <v>3.9995000000000003E-2</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>183</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="0"/>
-        <v>0.20741399999999999</v>
-      </c>
-      <c r="E68" t="s">
-        <v>126</v>
-      </c>
-      <c r="F68">
-        <v>0.82428299999999999</v>
+      <c r="B68">
+        <v>10.012964</v>
+      </c>
+      <c r="G68">
+        <v>4.0111000000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69">
-        <f t="shared" ref="C69:C123" si="1">SUBSTITUTE(TRIM(MID(B69, SEARCH("Tempo:", B69) + 6, SEARCH("segundos", B69) - SEARCH("Tempo:", B69) - 7)), ".", ",") * 1</f>
-        <v>0.207621</v>
-      </c>
-      <c r="E69" t="s">
-        <v>128</v>
-      </c>
-      <c r="F69">
-        <v>0.82472000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>185</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="1"/>
-        <v>0.20758399999999999</v>
-      </c>
-      <c r="E70" t="s">
-        <v>130</v>
-      </c>
-      <c r="F70">
-        <v>0.75783</v>
+      <c r="B69">
+        <v>10.020542000000001</v>
+      </c>
+      <c r="G69">
+        <v>4.0717000000000003E-2</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="1"/>
-        <v>0.207122</v>
-      </c>
-      <c r="E71" t="s">
-        <v>132</v>
-      </c>
-      <c r="F71">
-        <v>0.82382299999999997</v>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>187</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="1"/>
-        <v>0.20764099999999999</v>
-      </c>
-      <c r="E72" t="s">
-        <v>134</v>
-      </c>
-      <c r="F72">
-        <v>0.82488399999999995</v>
+        <v>20</v>
+      </c>
+      <c r="G72" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>188</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="1"/>
-        <v>0.20757100000000001</v>
-      </c>
-      <c r="E73" t="s">
-        <v>136</v>
-      </c>
-      <c r="F73">
-        <v>0.82455599999999996</v>
+      <c r="B73">
+        <v>1.729E-2</v>
+      </c>
+      <c r="C73" s="1">
+        <f>AVERAGE(B73:B77)</f>
+        <v>1.7141200000000002E-2</v>
+      </c>
+      <c r="G73">
+        <v>1.9380000000000001E-3</v>
+      </c>
+      <c r="H73" s="1">
+        <f>AVERAGE(G73:G77)</f>
+        <v>1.9306E-3</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>189</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="1"/>
-        <v>0.207756</v>
-      </c>
-      <c r="E74" t="s">
-        <v>138</v>
-      </c>
-      <c r="F74">
-        <v>0.82396000000000003</v>
+      <c r="B74">
+        <v>1.7156999999999999E-2</v>
+      </c>
+      <c r="G74">
+        <v>2.137E-3</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>190</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="1"/>
-        <v>0.20718200000000001</v>
-      </c>
-      <c r="E75" t="s">
-        <v>140</v>
-      </c>
-      <c r="F75">
-        <v>0.41239399999999998</v>
-      </c>
-      <c r="H75">
-        <f>AVERAGE(F75:F84)</f>
-        <v>0.41233779999999998</v>
+      <c r="B75">
+        <v>1.6687E-2</v>
+      </c>
+      <c r="G75">
+        <v>1.9919999999999998E-3</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>191</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="1"/>
-        <v>0.208144</v>
-      </c>
-      <c r="E76" t="s">
-        <v>142</v>
-      </c>
-      <c r="F76">
-        <v>0.41230099999999997</v>
+      <c r="B76">
+        <v>1.7226999999999999E-2</v>
+      </c>
+      <c r="G76">
+        <v>1.8450000000000001E-3</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>192</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="1"/>
-        <v>0.20757</v>
-      </c>
-      <c r="E77" t="s">
-        <v>144</v>
-      </c>
-      <c r="F77">
-        <v>0.41179399999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="1"/>
-        <v>0.207737</v>
-      </c>
-      <c r="E78" t="s">
-        <v>146</v>
-      </c>
-      <c r="F78">
-        <v>0.41173100000000001</v>
+      <c r="B77">
+        <v>1.7344999999999999E-2</v>
+      </c>
+      <c r="G77">
+        <v>1.7409999999999999E-3</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>194</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="1"/>
-        <v>0.20738100000000001</v>
-      </c>
-      <c r="E79" t="s">
-        <v>148</v>
-      </c>
-      <c r="F79">
-        <v>0.41288599999999998</v>
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>195</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="1"/>
-        <v>0.20849899999999999</v>
-      </c>
-      <c r="E80" t="s">
-        <v>150</v>
-      </c>
-      <c r="F80">
-        <v>0.41237600000000002</v>
+      <c r="B80">
+        <v>0.35589500000000002</v>
+      </c>
+      <c r="C80" s="1">
+        <f>AVERAGE(B80:B84)</f>
+        <v>0.37426320000000002</v>
+      </c>
+      <c r="G80">
+        <v>8.9280000000000002E-3</v>
+      </c>
+      <c r="H80" s="1">
+        <f>AVERAGE(G80:G84)</f>
+        <v>8.6797999999999997E-3</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>196</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="1"/>
-        <v>0.207149</v>
-      </c>
-      <c r="E81" t="s">
-        <v>152</v>
-      </c>
-      <c r="F81">
-        <v>0.41243800000000003</v>
+      <c r="B81">
+        <v>0.36068</v>
+      </c>
+      <c r="G81">
+        <v>8.6130000000000009E-3</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>197</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="1"/>
-        <v>0.208097</v>
-      </c>
-      <c r="E82" t="s">
-        <v>154</v>
-      </c>
-      <c r="F82">
-        <v>0.41197699999999998</v>
+      <c r="B82">
+        <v>0.377133</v>
+      </c>
+      <c r="G82">
+        <v>8.7810000000000006E-3</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>198</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="1"/>
-        <v>0.20746999999999999</v>
-      </c>
-      <c r="E83" t="s">
-        <v>156</v>
-      </c>
-      <c r="F83">
-        <v>0.413221</v>
+      <c r="B83">
+        <v>0.41839700000000002</v>
+      </c>
+      <c r="G83">
+        <v>8.5210000000000008E-3</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>199</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="1"/>
-        <v>0.167208</v>
-      </c>
-      <c r="E84" t="s">
-        <v>158</v>
-      </c>
-      <c r="F84">
-        <v>0.41226000000000002</v>
+      <c r="B84">
+        <v>0.359211</v>
+      </c>
+      <c r="G84">
+        <v>8.5559999999999994E-3</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>200</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="1"/>
-        <v>0.16697300000000001</v>
-      </c>
-      <c r="E85" t="s">
-        <v>160</v>
-      </c>
-      <c r="F85">
-        <v>0.27702300000000002</v>
-      </c>
-      <c r="H85">
-        <f>AVERAGE(F85:F94)</f>
-        <v>0.27634150000000002</v>
-      </c>
+      <c r="B85" s="4"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>201</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="1"/>
-        <v>0.16794899999999999</v>
-      </c>
-      <c r="E86" t="s">
-        <v>162</v>
-      </c>
-      <c r="F86">
-        <v>0.27609600000000001</v>
+      <c r="B86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>202</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="1"/>
-        <v>0.16585800000000001</v>
-      </c>
-      <c r="E87" t="s">
-        <v>164</v>
-      </c>
-      <c r="F87">
-        <v>0.27664100000000003</v>
+      <c r="B87" s="5">
+        <v>5.5864789999999998</v>
+      </c>
+      <c r="C87" s="1">
+        <f>AVERAGE(B87:B91)</f>
+        <v>5.6975037999999998</v>
+      </c>
+      <c r="G87" s="6">
+        <v>4.0230000000000002E-2</v>
+      </c>
+      <c r="H87" s="1">
+        <f>AVERAGE(G87:G91)</f>
+        <v>3.9164200000000003E-2</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>203</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="1"/>
-        <v>0.167382</v>
-      </c>
-      <c r="E88" t="s">
-        <v>166</v>
-      </c>
-      <c r="F88">
-        <v>0.276088</v>
+      <c r="B88" s="5">
+        <v>5.7058020000000003</v>
+      </c>
+      <c r="G88">
+        <v>3.8766000000000002E-2</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>204</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="1"/>
-        <v>0.16675599999999999</v>
-      </c>
-      <c r="E89" t="s">
-        <v>168</v>
-      </c>
-      <c r="F89">
-        <v>0.276592</v>
+      <c r="B89" s="5">
+        <v>5.7288309999999996</v>
+      </c>
+      <c r="G89">
+        <v>3.8974000000000002E-2</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>205</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="1"/>
-        <v>0.168105</v>
-      </c>
-      <c r="E90" t="s">
-        <v>170</v>
-      </c>
-      <c r="F90">
-        <v>0.27614</v>
+      <c r="B90">
+        <v>5.7038479999999998</v>
+      </c>
+      <c r="G90" s="6">
+        <v>3.9100000000000003E-2</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>206</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="1"/>
-        <v>0.165737</v>
-      </c>
-      <c r="E91" t="s">
-        <v>172</v>
-      </c>
-      <c r="F91">
-        <v>0.27613500000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>207</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="1"/>
-        <v>0.166412</v>
-      </c>
-      <c r="E92" t="s">
-        <v>174</v>
-      </c>
-      <c r="F92">
-        <v>0.27621699999999999</v>
+      <c r="B91">
+        <v>5.7625590000000004</v>
+      </c>
+      <c r="G91">
+        <v>3.8751000000000001E-2</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>208</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="1"/>
-        <v>0.166828</v>
-      </c>
-      <c r="E93" t="s">
-        <v>176</v>
-      </c>
-      <c r="F93">
-        <v>0.276171</v>
+      <c r="B93" t="e" cm="1">
+        <f t="array" ref="B93">- PARALELO GPU (openACC)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G93" t="e" cm="1">
+        <f t="array" ref="G93">- PARALELO GPU (openACC)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>209</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="1"/>
-        <v>0.16717099999999999</v>
-      </c>
-      <c r="E94" t="s">
-        <v>178</v>
-      </c>
-      <c r="F94">
-        <v>0.276312</v>
+        <v>23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>210</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="1"/>
-        <v>0.16655800000000001</v>
-      </c>
-      <c r="E95" t="s">
-        <v>180</v>
-      </c>
-      <c r="F95">
-        <v>0.20727899999999999</v>
-      </c>
-      <c r="H95">
-        <f>AVERAGE(F95:F104)</f>
-        <v>0.20739279999999999</v>
+      <c r="B95">
+        <v>0.845051</v>
+      </c>
+      <c r="C95" s="1">
+        <f>AVERAGE(B95:B99)</f>
+        <v>0.81036759999999997</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>211</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="1"/>
-        <v>0.16719899999999999</v>
-      </c>
-      <c r="E96" t="s">
-        <v>182</v>
-      </c>
-      <c r="F96">
-        <v>0.20758299999999999</v>
+      <c r="B96">
+        <v>0.83607799999999999</v>
+      </c>
+      <c r="G96" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>212</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="1"/>
-        <v>0.16652500000000001</v>
-      </c>
-      <c r="E97" t="s">
-        <v>184</v>
-      </c>
-      <c r="F97">
-        <v>0.207621</v>
+      <c r="B97">
+        <v>0.79467200000000005</v>
+      </c>
+      <c r="G97">
+        <v>0.157971</v>
+      </c>
+      <c r="H97" s="1">
+        <f>AVERAGE(G97:G101)</f>
+        <v>0.12351479999999999</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>213</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="1"/>
-        <v>0.16747799999999999</v>
-      </c>
-      <c r="E98" t="s">
-        <v>186</v>
-      </c>
-      <c r="F98">
-        <v>0.207122</v>
+      <c r="B98">
+        <v>0.78616399999999997</v>
+      </c>
+      <c r="G98">
+        <v>0.118462</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>214</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="1"/>
-        <v>0.16581199999999999</v>
-      </c>
-      <c r="E99" t="s">
-        <v>188</v>
-      </c>
-      <c r="F99">
-        <v>0.20757100000000001</v>
+      <c r="B99">
+        <v>0.78987300000000005</v>
+      </c>
+      <c r="G99" s="6">
+        <v>0.11366</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>215</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="1"/>
-        <v>0.167348</v>
-      </c>
-      <c r="E100" t="s">
-        <v>190</v>
-      </c>
-      <c r="F100">
-        <v>0.20718200000000001</v>
+      <c r="B100" s="4"/>
+      <c r="G100">
+        <v>0.114717</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>216</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="1"/>
-        <v>0.16680800000000001</v>
-      </c>
-      <c r="E101" t="s">
-        <v>192</v>
-      </c>
-      <c r="F101">
-        <v>0.20757</v>
+      <c r="B101" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101">
+        <v>0.112764</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>217</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="1"/>
-        <v>0.16749900000000001</v>
-      </c>
-      <c r="E102" t="s">
-        <v>194</v>
-      </c>
-      <c r="F102">
-        <v>0.20738100000000001</v>
+      <c r="B102" s="5">
+        <v>64.068528999999998</v>
+      </c>
+      <c r="C102" s="1">
+        <f>AVERAGE(B102:B106)</f>
+        <v>64.1391414</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>218</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="1"/>
-        <v>0.166881</v>
-      </c>
-      <c r="E103" t="s">
-        <v>196</v>
-      </c>
-      <c r="F103">
-        <v>0.207149</v>
+      <c r="B103" s="5">
+        <v>64.119681999999997</v>
+      </c>
+      <c r="G103" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>219</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="1"/>
-        <v>0.13927</v>
-      </c>
-      <c r="E104" t="s">
-        <v>198</v>
-      </c>
-      <c r="F104">
-        <v>0.20746999999999999</v>
+      <c r="B104" s="5">
+        <v>64.160428999999993</v>
+      </c>
+      <c r="G104">
+        <v>0.16650899999999999</v>
+      </c>
+      <c r="H104" s="1">
+        <f>AVERAGE(G104:G108)</f>
+        <v>0.13496559999999999</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>220</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="1"/>
-        <v>0.138934</v>
-      </c>
-      <c r="E105" t="s">
-        <v>200</v>
-      </c>
-      <c r="F105">
-        <v>0.16697300000000001</v>
-      </c>
-      <c r="H105">
-        <f>AVERAGE(F105:F114)</f>
-        <v>0.16647360000000003</v>
+      <c r="B105">
+        <v>64.171935000000005</v>
+      </c>
+      <c r="G105">
+        <v>0.12883700000000001</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>221</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="1"/>
-        <v>0.14113899999999999</v>
-      </c>
-      <c r="E106" t="s">
-        <v>202</v>
-      </c>
-      <c r="F106">
-        <v>0.16585800000000001</v>
+      <c r="B106">
+        <v>64.175132000000005</v>
+      </c>
+      <c r="G106">
+        <v>0.12945699999999999</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>222</v>
-      </c>
-      <c r="C107">
-        <f t="shared" si="1"/>
-        <v>0.13916000000000001</v>
-      </c>
-      <c r="E107" t="s">
-        <v>204</v>
-      </c>
-      <c r="F107">
-        <v>0.16675599999999999</v>
+      <c r="G107" s="6">
+        <v>0.12689</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>223</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="1"/>
-        <v>0.139487</v>
-      </c>
-      <c r="E108" t="s">
-        <v>206</v>
-      </c>
-      <c r="F108">
-        <v>0.165737</v>
+        <v>25</v>
+      </c>
+      <c r="G108">
+        <v>0.12313499999999999</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>224</v>
-      </c>
-      <c r="C109">
-        <f t="shared" si="1"/>
-        <v>0.139045</v>
-      </c>
-      <c r="E109" t="s">
-        <v>208</v>
-      </c>
-      <c r="F109">
-        <v>0.166828</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>225</v>
-      </c>
-      <c r="C110">
-        <f t="shared" si="1"/>
-        <v>0.13933400000000001</v>
-      </c>
-      <c r="E110" t="s">
-        <v>210</v>
-      </c>
-      <c r="F110">
-        <v>0.16655800000000001</v>
+      <c r="G110" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>226</v>
-      </c>
-      <c r="C111">
-        <f t="shared" si="1"/>
-        <v>0.138817</v>
-      </c>
-      <c r="E111" t="s">
-        <v>212</v>
-      </c>
-      <c r="F111">
-        <v>0.16652500000000001</v>
+      <c r="G111">
+        <v>0.247221</v>
+      </c>
+      <c r="H111" s="1">
+        <f>AVERAGE(G111:G115)</f>
+        <v>0.20309019999999997</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>227</v>
-      </c>
-      <c r="C112">
-        <f t="shared" si="1"/>
-        <v>0.14111399999999999</v>
-      </c>
-      <c r="E112" t="s">
-        <v>214</v>
-      </c>
-      <c r="F112">
-        <v>0.16581199999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>228</v>
-      </c>
-      <c r="C113">
-        <f t="shared" si="1"/>
-        <v>0.139072</v>
-      </c>
-      <c r="E113" t="s">
-        <v>216</v>
-      </c>
-      <c r="F113">
-        <v>0.16680800000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>229</v>
-      </c>
-      <c r="C114">
-        <f t="shared" si="1"/>
-        <v>0.13955899999999999</v>
-      </c>
-      <c r="E114" t="s">
-        <v>218</v>
-      </c>
-      <c r="F114">
-        <v>0.166881</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>230</v>
-      </c>
-      <c r="C115">
-        <f t="shared" si="1"/>
-        <v>0.139011</v>
-      </c>
-      <c r="E115" t="s">
-        <v>220</v>
-      </c>
-      <c r="F115">
-        <v>0.138934</v>
-      </c>
-      <c r="H115">
-        <f>AVERAGE(F115:F124)</f>
-        <v>0.13906329999999997</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>231</v>
-      </c>
-      <c r="C116">
-        <f t="shared" si="1"/>
-        <v>0.13949800000000001</v>
-      </c>
-      <c r="E116" t="s">
-        <v>222</v>
-      </c>
-      <c r="F116">
-        <v>0.13916000000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>232</v>
-      </c>
-      <c r="C117">
-        <f t="shared" si="1"/>
-        <v>0.13889899999999999</v>
-      </c>
-      <c r="E117" t="s">
-        <v>224</v>
-      </c>
-      <c r="F117">
-        <v>0.139045</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>233</v>
-      </c>
-      <c r="C118">
-        <f t="shared" si="1"/>
-        <v>0.140515</v>
-      </c>
-      <c r="E118" t="s">
-        <v>226</v>
-      </c>
-      <c r="F118">
-        <v>0.138817</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>234</v>
-      </c>
-      <c r="C119">
-        <f t="shared" si="1"/>
-        <v>0.13922100000000001</v>
-      </c>
-      <c r="E119" t="s">
-        <v>228</v>
-      </c>
-      <c r="F119">
-        <v>0.139072</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>235</v>
-      </c>
-      <c r="C120">
-        <f t="shared" si="1"/>
-        <v>0.139987</v>
-      </c>
-      <c r="E120" t="s">
-        <v>230</v>
-      </c>
-      <c r="F120">
-        <v>0.139011</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>236</v>
-      </c>
-      <c r="C121">
-        <f t="shared" si="1"/>
-        <v>0.139352</v>
-      </c>
-      <c r="E121" t="s">
-        <v>232</v>
-      </c>
-      <c r="F121">
-        <v>0.13889899999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>237</v>
-      </c>
-      <c r="C122">
-        <f t="shared" si="1"/>
-        <v>0.14091500000000001</v>
-      </c>
-      <c r="E122" t="s">
-        <v>234</v>
-      </c>
-      <c r="F122">
-        <v>0.13922100000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>238</v>
-      </c>
-      <c r="C123">
-        <f t="shared" si="1"/>
-        <v>0.139122</v>
-      </c>
-      <c r="E123" t="s">
-        <v>236</v>
-      </c>
-      <c r="F123">
-        <v>0.139352</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E124" t="s">
-        <v>238</v>
-      </c>
-      <c r="F124">
-        <v>0.139122</v>
+      <c r="G112">
+        <v>0.19172900000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>0.190388</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>0.191854</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>0.19425899999999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:C123" xr:uid="{1A4EE91A-7814-44F2-BD5E-4F462DC98BF6}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9186ECA6-7201-465F-8431-439E52AF13DD}">
-  <dimension ref="B2:H124"/>
-  <sheetViews>
-    <sheetView topLeftCell="B82" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H115" activeCellId="5" sqref="H65 H75 H85 H95 H105 H115"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="82.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <f>SUBSTITUTE(TRIM(MID(B4, SEARCH("Tempo:", B4) + 6, SEARCH("segundos", B4) - SEARCH("Tempo:", B4) - 7)), ".", ",") * 1</f>
-        <v>0.207124</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.207124</v>
-      </c>
-      <c r="H4">
-        <f>AVERAGE(F4:F13)</f>
-        <v>0.20707440000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C68" si="0">SUBSTITUTE(TRIM(MID(B5, SEARCH("Tempo:", B5) + 6, SEARCH("segundos", B5) - SEARCH("Tempo:", B5) - 7)), ".", ",") * 1</f>
-        <v>0.20624400000000001</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>0.20721100000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.20721100000000001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>0.20694100000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.20610400000000001</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>0.207041</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.20694100000000001</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>0.207067</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.20627200000000001</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>0.20705200000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.207041</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>0.20702699999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.20611499999999999</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>0.20721700000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.207067</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>0.20704900000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.206012</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13">
-        <v>0.207015</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.20705200000000001</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14">
-        <v>0.10396900000000001</v>
-      </c>
-      <c r="H14">
-        <f>AVERAGE(F14:F23)</f>
-        <v>0.10397219999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.20619499999999999</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15">
-        <v>0.104078</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.20702699999999999</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16">
-        <v>0.103951</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.20610000000000001</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17">
-        <v>0.10398399999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.20721700000000001</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>0.104061</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.206124</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19">
-        <v>0.103923</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.20704900000000001</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20">
-        <v>0.10414</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.20611199999999999</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21">
-        <v>0.103892</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.207015</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22">
-        <v>0.10378</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.205957</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23">
-        <v>0.10394399999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.10396900000000001</v>
-      </c>
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24">
-        <v>7.0109000000000005E-2</v>
-      </c>
-      <c r="H24">
-        <f>AVERAGE(F24:F33)</f>
-        <v>6.9785100000000003E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.10311099999999999</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25">
-        <v>6.9897000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0.104078</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26">
-        <v>6.9578000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.103019</v>
-      </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27">
-        <v>6.9789000000000004E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.103951</v>
-      </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28">
-        <v>6.9658999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.10301100000000001</v>
-      </c>
-      <c r="E29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29">
-        <v>6.9672999999999999E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.10398399999999999</v>
-      </c>
-      <c r="E30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30">
-        <v>6.966E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>0.103126</v>
-      </c>
-      <c r="E31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31">
-        <v>7.0209999999999995E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>0.104061</v>
-      </c>
-      <c r="E32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32">
-        <v>6.9591E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0.10301100000000001</v>
-      </c>
-      <c r="E33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33">
-        <v>6.9684999999999997E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>0.103923</v>
-      </c>
-      <c r="E34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34">
-        <v>5.2351000000000002E-2</v>
-      </c>
-      <c r="H34">
-        <f>AVERAGE(F34:F43)</f>
-        <v>5.2637400000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>0.10301100000000001</v>
-      </c>
-      <c r="E35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35">
-        <v>5.2323000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0.10414</v>
-      </c>
-      <c r="E36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36">
-        <v>5.2511000000000002E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0.103022</v>
-      </c>
-      <c r="E37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37">
-        <v>5.2345999999999997E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>0.103892</v>
-      </c>
-      <c r="E38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38">
-        <v>5.3768000000000003E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>0.10298300000000001</v>
-      </c>
-      <c r="E39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39">
-        <v>5.2276000000000003E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>0.10378</v>
-      </c>
-      <c r="E40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40">
-        <v>5.2408999999999997E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>0.10309</v>
-      </c>
-      <c r="E41" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41">
-        <v>5.2332999999999998E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>0.10394399999999999</v>
-      </c>
-      <c r="E42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42">
-        <v>5.3677999999999997E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>0.103075</v>
-      </c>
-      <c r="E43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43">
-        <v>5.2379000000000002E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>7.0109000000000005E-2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>80</v>
-      </c>
-      <c r="F44">
-        <v>4.2242000000000002E-2</v>
-      </c>
-      <c r="H44">
-        <f>AVERAGE(F44:F53)</f>
-        <v>4.2504399999999998E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>6.9606000000000001E-2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>82</v>
-      </c>
-      <c r="F45">
-        <v>4.3617999999999997E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>6.9897000000000001E-2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46">
-        <v>4.2333000000000003E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>6.9149000000000002E-2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>86</v>
-      </c>
-      <c r="F47">
-        <v>4.4089999999999997E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>6.9578000000000001E-2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48">
-        <v>4.1681999999999997E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>6.9094000000000003E-2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49">
-        <v>4.2117000000000002E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>6.9789000000000004E-2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50">
-        <v>4.2153999999999997E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>6.9095000000000004E-2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51">
-        <v>4.2484000000000001E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>6.9658999999999999E-2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52">
-        <v>4.2245999999999999E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>6.9108000000000003E-2</v>
-      </c>
-      <c r="E53" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53">
-        <v>4.2077999999999997E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
-        <v>6.9672999999999999E-2</v>
-      </c>
-      <c r="E54" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54">
-        <v>3.6866999999999997E-2</v>
-      </c>
-      <c r="H54">
-        <f>AVERAGE(F54:F63)</f>
-        <v>3.5630499999999996E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="0"/>
-        <v>6.9067000000000003E-2</v>
-      </c>
-      <c r="E55" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55">
-        <v>3.637E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="0"/>
-        <v>6.966E-2</v>
-      </c>
-      <c r="E56" t="s">
-        <v>104</v>
-      </c>
-      <c r="F56">
-        <v>3.5466999999999999E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
-        <v>6.9111000000000006E-2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>106</v>
-      </c>
-      <c r="F57">
-        <v>3.5253E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="0"/>
-        <v>7.0209999999999995E-2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58">
-        <v>3.5282000000000001E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="0"/>
-        <v>6.9509000000000001E-2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59">
-        <v>3.5642E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="0"/>
-        <v>6.9591E-2</v>
-      </c>
-      <c r="E60" t="s">
-        <v>112</v>
-      </c>
-      <c r="F60">
-        <v>3.5360000000000003E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="0"/>
-        <v>6.9123000000000004E-2</v>
-      </c>
-      <c r="E61" t="s">
-        <v>114</v>
-      </c>
-      <c r="F61">
-        <v>3.5333999999999997E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="0"/>
-        <v>6.9684999999999997E-2</v>
-      </c>
-      <c r="E62" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62">
-        <v>3.5279999999999999E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="0"/>
-        <v>6.9114999999999996E-2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>117</v>
-      </c>
-      <c r="F63">
-        <v>3.5450000000000002E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="0"/>
-        <v>5.2351000000000002E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="0"/>
-        <v>5.1860000000000003E-2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65">
-        <v>0.20624400000000001</v>
-      </c>
-      <c r="H65">
-        <f>AVERAGE(F65:F74)</f>
-        <v>0.20612349999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="0"/>
-        <v>5.2323000000000001E-2</v>
-      </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66">
-        <v>0.20610400000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="0"/>
-        <v>5.1832000000000003E-2</v>
-      </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67">
-        <v>0.20627200000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="0"/>
-        <v>5.2511000000000002E-2</v>
-      </c>
-      <c r="E68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68">
-        <v>0.20611499999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69">
-        <f t="shared" ref="C69:C123" si="1">SUBSTITUTE(TRIM(MID(B69, SEARCH("Tempo:", B69) + 6, SEARCH("segundos", B69) - SEARCH("Tempo:", B69) - 7)), ".", ",") * 1</f>
-        <v>5.1761000000000001E-2</v>
-      </c>
-      <c r="E69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69">
-        <v>0.206012</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="1"/>
-        <v>5.2345999999999997E-2</v>
-      </c>
-      <c r="E70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70">
-        <v>0.20619499999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="1"/>
-        <v>5.1894000000000003E-2</v>
-      </c>
-      <c r="E71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71">
-        <v>0.20610000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="1"/>
-        <v>5.3768000000000003E-2</v>
-      </c>
-      <c r="E72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72">
-        <v>0.206124</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="1"/>
-        <v>5.1997000000000002E-2</v>
-      </c>
-      <c r="E73" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73">
-        <v>0.20611199999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="1"/>
-        <v>5.2276000000000003E-2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74">
-        <v>0.205957</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="1"/>
-        <v>5.2773E-2</v>
-      </c>
-      <c r="E75" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75">
-        <v>0.10311099999999999</v>
-      </c>
-      <c r="H75">
-        <f>AVERAGE(F75:F84)</f>
-        <v>0.1030459</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="1"/>
-        <v>5.2408999999999997E-2</v>
-      </c>
-      <c r="E76" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76">
-        <v>0.103019</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="1"/>
-        <v>5.1744999999999999E-2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77">
-        <v>0.10301100000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="1"/>
-        <v>5.2332999999999998E-2</v>
-      </c>
-      <c r="E78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78">
-        <v>0.103126</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="1"/>
-        <v>5.2779E-2</v>
-      </c>
-      <c r="E79" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79">
-        <v>0.10301100000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="1"/>
-        <v>5.3677999999999997E-2</v>
-      </c>
-      <c r="E80" t="s">
-        <v>27</v>
-      </c>
-      <c r="F80">
-        <v>0.10301100000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="1"/>
-        <v>5.1922999999999997E-2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>33</v>
-      </c>
-      <c r="F81">
-        <v>0.103022</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="1"/>
-        <v>5.2379000000000002E-2</v>
-      </c>
-      <c r="E82" t="s">
-        <v>35</v>
-      </c>
-      <c r="F82">
-        <v>0.10298300000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="1"/>
-        <v>5.1952999999999999E-2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>37</v>
-      </c>
-      <c r="F83">
-        <v>0.10309</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="1"/>
-        <v>4.2242000000000002E-2</v>
-      </c>
-      <c r="E84" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84">
-        <v>0.103075</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="1"/>
-        <v>4.1751999999999997E-2</v>
-      </c>
-      <c r="E85" t="s">
-        <v>41</v>
-      </c>
-      <c r="F85">
-        <v>6.9606000000000001E-2</v>
-      </c>
-      <c r="H85">
-        <f>AVERAGE(F85:F94)</f>
-        <v>6.9197700000000015E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="1"/>
-        <v>4.3617999999999997E-2</v>
-      </c>
-      <c r="E86" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86">
-        <v>6.9149000000000002E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="1"/>
-        <v>4.2229999999999997E-2</v>
-      </c>
-      <c r="E87" t="s">
-        <v>45</v>
-      </c>
-      <c r="F87">
-        <v>6.9094000000000003E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="1"/>
-        <v>4.2333000000000003E-2</v>
-      </c>
-      <c r="E88" t="s">
-        <v>47</v>
-      </c>
-      <c r="F88">
-        <v>6.9095000000000004E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>85</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="1"/>
-        <v>4.1862999999999997E-2</v>
-      </c>
-      <c r="E89" t="s">
-        <v>49</v>
-      </c>
-      <c r="F89">
-        <v>6.9108000000000003E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="1"/>
-        <v>4.4089999999999997E-2</v>
-      </c>
-      <c r="E90" t="s">
-        <v>51</v>
-      </c>
-      <c r="F90">
-        <v>6.9067000000000003E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="1"/>
-        <v>4.1473000000000003E-2</v>
-      </c>
-      <c r="E91" t="s">
-        <v>53</v>
-      </c>
-      <c r="F91">
-        <v>6.9111000000000006E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="1"/>
-        <v>4.1681999999999997E-2</v>
-      </c>
-      <c r="E92" t="s">
-        <v>55</v>
-      </c>
-      <c r="F92">
-        <v>6.9509000000000001E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>89</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="1"/>
-        <v>4.1406999999999999E-2</v>
-      </c>
-      <c r="E93" t="s">
-        <v>57</v>
-      </c>
-      <c r="F93">
-        <v>6.9123000000000004E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="1"/>
-        <v>4.2117000000000002E-2</v>
-      </c>
-      <c r="E94" t="s">
-        <v>59</v>
-      </c>
-      <c r="F94">
-        <v>6.9114999999999996E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>91</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="1"/>
-        <v>4.1763000000000002E-2</v>
-      </c>
-      <c r="E95" t="s">
-        <v>61</v>
-      </c>
-      <c r="F95">
-        <v>5.1860000000000003E-2</v>
-      </c>
-      <c r="H95">
-        <f>AVERAGE(F95:F104)</f>
-        <v>5.2051699999999999E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="1"/>
-        <v>4.2153999999999997E-2</v>
-      </c>
-      <c r="E96" t="s">
-        <v>63</v>
-      </c>
-      <c r="F96">
-        <v>5.1832000000000003E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="1"/>
-        <v>4.2653000000000003E-2</v>
-      </c>
-      <c r="E97" t="s">
-        <v>65</v>
-      </c>
-      <c r="F97">
-        <v>5.1761000000000001E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>94</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="1"/>
-        <v>4.2484000000000001E-2</v>
-      </c>
-      <c r="E98" t="s">
-        <v>67</v>
-      </c>
-      <c r="F98">
-        <v>5.1894000000000003E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>95</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="1"/>
-        <v>4.1835999999999998E-2</v>
-      </c>
-      <c r="E99" t="s">
-        <v>69</v>
-      </c>
-      <c r="F99">
-        <v>5.1997000000000002E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>96</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="1"/>
-        <v>4.2245999999999999E-2</v>
-      </c>
-      <c r="E100" t="s">
-        <v>71</v>
-      </c>
-      <c r="F100">
-        <v>5.2773E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>97</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="1"/>
-        <v>4.1761E-2</v>
-      </c>
-      <c r="E101" t="s">
-        <v>73</v>
-      </c>
-      <c r="F101">
-        <v>5.1744999999999999E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>98</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="1"/>
-        <v>4.2077999999999997E-2</v>
-      </c>
-      <c r="E102" t="s">
-        <v>75</v>
-      </c>
-      <c r="F102">
-        <v>5.2779E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>99</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="1"/>
-        <v>4.1756000000000001E-2</v>
-      </c>
-      <c r="E103" t="s">
-        <v>77</v>
-      </c>
-      <c r="F103">
-        <v>5.1922999999999997E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>100</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="1"/>
-        <v>3.6866999999999997E-2</v>
-      </c>
-      <c r="E104" t="s">
-        <v>79</v>
-      </c>
-      <c r="F104">
-        <v>5.1952999999999999E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>101</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="1"/>
-        <v>3.5763000000000003E-2</v>
-      </c>
-      <c r="E105" t="s">
-        <v>81</v>
-      </c>
-      <c r="F105">
-        <v>4.1751999999999997E-2</v>
-      </c>
-      <c r="H105">
-        <f>AVERAGE(F105:F114)</f>
-        <v>4.1849399999999995E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>102</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="1"/>
-        <v>3.637E-2</v>
-      </c>
-      <c r="E106" t="s">
-        <v>83</v>
-      </c>
-      <c r="F106">
-        <v>4.2229999999999997E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>103</v>
-      </c>
-      <c r="C107">
-        <f t="shared" si="1"/>
-        <v>3.4957000000000002E-2</v>
-      </c>
-      <c r="E107" t="s">
-        <v>85</v>
-      </c>
-      <c r="F107">
-        <v>4.1862999999999997E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>104</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="1"/>
-        <v>3.5466999999999999E-2</v>
-      </c>
-      <c r="E108" t="s">
-        <v>87</v>
-      </c>
-      <c r="F108">
-        <v>4.1473000000000003E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>105</v>
-      </c>
-      <c r="C109">
-        <f t="shared" si="1"/>
-        <v>3.4942000000000001E-2</v>
-      </c>
-      <c r="E109" t="s">
-        <v>89</v>
-      </c>
-      <c r="F109">
-        <v>4.1406999999999999E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>106</v>
-      </c>
-      <c r="C110">
-        <f t="shared" si="1"/>
-        <v>3.5253E-2</v>
-      </c>
-      <c r="E110" t="s">
-        <v>91</v>
-      </c>
-      <c r="F110">
-        <v>4.1763000000000002E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>107</v>
-      </c>
-      <c r="C111">
-        <f t="shared" si="1"/>
-        <v>3.4780999999999999E-2</v>
-      </c>
-      <c r="E111" t="s">
-        <v>93</v>
-      </c>
-      <c r="F111">
-        <v>4.2653000000000003E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>108</v>
-      </c>
-      <c r="C112">
-        <f t="shared" si="1"/>
-        <v>3.5282000000000001E-2</v>
-      </c>
-      <c r="E112" t="s">
-        <v>95</v>
-      </c>
-      <c r="F112">
-        <v>4.1835999999999998E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>109</v>
-      </c>
-      <c r="C113">
-        <f t="shared" si="1"/>
-        <v>3.4736999999999997E-2</v>
-      </c>
-      <c r="E113" t="s">
-        <v>97</v>
-      </c>
-      <c r="F113">
-        <v>4.1761E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>110</v>
-      </c>
-      <c r="C114">
-        <f t="shared" si="1"/>
-        <v>3.5642E-2</v>
-      </c>
-      <c r="E114" t="s">
-        <v>99</v>
-      </c>
-      <c r="F114">
-        <v>4.1756000000000001E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>111</v>
-      </c>
-      <c r="C115">
-        <f t="shared" si="1"/>
-        <v>3.5085999999999999E-2</v>
-      </c>
-      <c r="E115" t="s">
-        <v>101</v>
-      </c>
-      <c r="F115">
-        <v>3.5763000000000003E-2</v>
-      </c>
-      <c r="H115">
-        <f>AVERAGE(F115:F124)</f>
-        <v>3.4945400000000001E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>112</v>
-      </c>
-      <c r="C116">
-        <f t="shared" si="1"/>
-        <v>3.5360000000000003E-2</v>
-      </c>
-      <c r="E116" t="s">
-        <v>103</v>
-      </c>
-      <c r="F116">
-        <v>3.4957000000000002E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>113</v>
-      </c>
-      <c r="C117">
-        <f t="shared" si="1"/>
-        <v>3.4785000000000003E-2</v>
-      </c>
-      <c r="E117" t="s">
-        <v>105</v>
-      </c>
-      <c r="F117">
-        <v>3.4942000000000001E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>114</v>
-      </c>
-      <c r="C118">
-        <f t="shared" si="1"/>
-        <v>3.5333999999999997E-2</v>
-      </c>
-      <c r="E118" t="s">
-        <v>107</v>
-      </c>
-      <c r="F118">
-        <v>3.4780999999999999E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>109</v>
-      </c>
-      <c r="C119">
-        <f t="shared" si="1"/>
-        <v>3.4736999999999997E-2</v>
-      </c>
-      <c r="E119" t="s">
-        <v>109</v>
-      </c>
-      <c r="F119">
-        <v>3.4736999999999997E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>115</v>
-      </c>
-      <c r="C120">
-        <f t="shared" si="1"/>
-        <v>3.5279999999999999E-2</v>
-      </c>
-      <c r="E120" t="s">
-        <v>111</v>
-      </c>
-      <c r="F120">
-        <v>3.5085999999999999E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>116</v>
-      </c>
-      <c r="C121">
-        <f t="shared" si="1"/>
-        <v>3.4791000000000002E-2</v>
-      </c>
-      <c r="E121" t="s">
-        <v>113</v>
-      </c>
-      <c r="F121">
-        <v>3.4785000000000003E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>117</v>
-      </c>
-      <c r="C122">
-        <f t="shared" si="1"/>
-        <v>3.5450000000000002E-2</v>
-      </c>
-      <c r="E122" t="s">
-        <v>109</v>
-      </c>
-      <c r="F122">
-        <v>3.4736999999999997E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>118</v>
-      </c>
-      <c r="C123">
-        <f t="shared" si="1"/>
-        <v>3.4875000000000003E-2</v>
-      </c>
-      <c r="E123" t="s">
-        <v>116</v>
-      </c>
-      <c r="F123">
-        <v>3.4791000000000002E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E124" t="s">
-        <v>118</v>
-      </c>
-      <c r="F124">
-        <v>3.4875000000000003E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B3:C123" xr:uid="{9186ECA6-7201-465F-8431-439E52AF13DD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>